--- a/Sura/DataSource - Endoso - Modificacion de Datos.xlsx
+++ b/Sura/DataSource - Endoso - Modificacion de Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17962338-E47D-421B-A6F8-2FEA6F22BA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220BF46-AC92-4D7C-9633-1A6C291CA8BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Usuario</t>
   </si>
@@ -447,7 +447,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,9 +513,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
